--- a/toolKit/src/main/java/model.xlsx
+++ b/toolKit/src/main/java/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="9390"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+  <si>
+    <t>接口名称:</t>
+  </si>
+  <si>
+    <t>测试接口文档</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>样例</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,9 +56,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -45,62 +130,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +171,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,37 +201,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,25 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,155 +415,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,6 +475,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,50 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -465,15 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -482,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,138 +561,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,6 +771,22 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -692,7 +799,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -972,26 +1079,182 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>"1,n"</formula1>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:E18">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$E3="N"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$E3="1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18">
+      <formula1>"string,int,date,long,float,decimal,list"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E4:E8">
+      <formula1>"1,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
